--- a/biology/Zoologie/Hentzia_mitrata/Hentzia_mitrata.xlsx
+++ b/biology/Zoologie/Hentzia_mitrata/Hentzia_mitrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hentzia mitrata est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hentzia mitrata est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre, :
 au Canada au Québec et en Ontario ;
 aux États-Unis au Massachusetts, au Connecticut, dans l'État de New York, en Pennsylvanie, au New Jersey, au Maryland, à Washington, en Virginie, au Virginie-Occidentale, en Caroline du Nord, au Caroline du Sud, en Ohio, au Michigan, au Wisconsin, au Minnesota, en Iowa, en Illinois, au Missouri, au Kansas, en Arkansas, au Texas, en Louisiane, au Mississippi, en Alabama, en Géorgie et en Floride ;
 aux Bahamas.</t>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 3,50 à 4,10 mm et les femelles de 2,90 à 4,50 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 3,50 à 4,10 mm et les femelles de 2,90 à 4,50 mm.
 </t>
         </is>
       </c>
@@ -577,8 +593,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Alimentation
-Ce prédateur insectivore semble consommer la sève de certaines plantes à laquelle il accède en mordant les feuilles avec ses chélicères[4].
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce prédateur insectivore semble consommer la sève de certaines plantes à laquelle il accède en mordant les feuilles avec ses chélicères.
 </t>
         </is>
       </c>
@@ -607,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hentz, 1846 : Descriptions and figures of the araneides of the United States. Boston Journal of Natural History, vol. 5, p. 352-370 (texte intégral).</t>
         </is>
